--- a/Final_Project/Screenshots and text files/benchmark.xlsx
+++ b/Final_Project/Screenshots and text files/benchmark.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\INFO6205\Final_Project\Screenshots and text files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C2C4BE-4A8B-4C43-8C31-CB32DA59ED19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ACD0EA-EB7B-46CD-834B-491084247368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,39 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="62">
   <si>
     <t>PureHuskySort</t>
-  </si>
-  <si>
-    <t>2021-12-14 06:07:35 INFO  Benchmark_Timer - Begin run: PureHuskySort with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 250000 :1487.9</t>
-  </si>
-  <si>
-    <t>2021-12-14 06:07:56 INFO  Benchmark_Timer - Begin run: PureHuskySort with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 500000 :3246.2</t>
-  </si>
-  <si>
-    <t>2021-12-14 06:08:40 INFO  Benchmark_Timer - Begin run: PureHuskySort with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 1000000 :5720.9</t>
-  </si>
-  <si>
-    <t>2021-12-14 06:10:00 INFO  Benchmark_Timer - Begin run: PureHuskySort with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 2000000 :10664.4</t>
-  </si>
-  <si>
-    <t>2021-12-14 06:12:29 INFO  Benchmark_Timer - Begin run: PureHuskySort with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 4000000 :16675.0</t>
   </si>
   <si>
     <t>MSDStringSort</t>
@@ -129,67 +100,7 @@
     <t>LSDStringSort</t>
   </si>
   <si>
-    <t>2021-12-14 06:31:35 INFO  Benchmark_Timer - Begin run: LSDStringSort with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 250000 :342.2</t>
-  </si>
-  <si>
-    <t>2021-12-14 06:31:42 INFO  Benchmark_Timer - Begin run: LSDStringSort with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 500000 :538.4</t>
-  </si>
-  <si>
-    <t>2021-12-14 06:31:55 INFO  Benchmark_Timer - Begin run: LSDStringSort with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 1000000 :820.9</t>
-  </si>
-  <si>
-    <t>2021-12-14 06:32:19 INFO  Benchmark_Timer - Begin run: LSDStringSort with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 2000000 :1666.3</t>
-  </si>
-  <si>
-    <t>2021-12-14 06:33:05 INFO  Benchmark_Timer - Begin run: LSDStringSort with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 4000000 :2930.5</t>
-  </si>
-  <si>
     <t>QuickSort_DualPivot</t>
-  </si>
-  <si>
-    <t>2021-12-14 15:21:53 INFO  Benchmark_Timer - Begin run: QuickSort_DualPivot with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 250000 :240.5</t>
-  </si>
-  <si>
-    <t>2021-12-14 15:22:00 INFO  Benchmark_Timer - Begin run: QuickSort_DualPivot with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 500000 :597.1</t>
-  </si>
-  <si>
-    <t>2021-12-14 15:22:14 INFO  Benchmark_Timer - Begin run: QuickSort_DualPivot with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 1000000 :1300.4</t>
-  </si>
-  <si>
-    <t>2021-12-14 15:22:43 INFO  Benchmark_Timer - Begin run: QuickSort_DualPivot with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 2000000 :2884.7</t>
-  </si>
-  <si>
-    <t>2021-12-14 15:23:46 INFO  Benchmark_Timer - Begin run: QuickSort_DualPivot with 10 runs</t>
-  </si>
-  <si>
-    <t>Time Taken for 4000000 :6105.9</t>
   </si>
   <si>
     <t>Algorithm</t>
@@ -211,6 +122,96 @@
   </si>
   <si>
     <t>Dual Pivot Quick Sort</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:11:36 INFO  Benchmark_Timer - Begin run: PureHuskySort with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 250000 :623.2</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:11:46 INFO  Benchmark_Timer - Begin run: PureHuskySort with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 500000 :1285.0</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:12:08 INFO  Benchmark_Timer - Begin run: PureHuskySort with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 1000000 :2589.8</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:12:51 INFO  Benchmark_Timer - Begin run: PureHuskySort with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 2000000 :5223.2</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:14:16 INFO  Benchmark_Timer - Begin run: PureHuskySort with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 4000000 :10506.6</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:08:20 INFO  Benchmark_Timer - Begin run: QuickSort_DualPivot with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 250000 :176.6</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:08:26 INFO  Benchmark_Timer - Begin run: QuickSort_DualPivot with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 500000 :446.0</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:08:38 INFO  Benchmark_Timer - Begin run: QuickSort_DualPivot with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 1000000 :1069.7</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:09:02 INFO  Benchmark_Timer - Begin run: QuickSort_DualPivot with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 2000000 :2302.9</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:09:51 INFO  Benchmark_Timer - Begin run: QuickSort_DualPivot with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 4000000 :4971.9</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:05:27 INFO  Benchmark_Timer - Begin run: LSDStringSort with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 250000 :226.7</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:05:33 INFO  Benchmark_Timer - Begin run: LSDStringSort with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 500000 :539.8</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:05:46 INFO  Benchmark_Timer - Begin run: LSDStringSort with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 1000000 :848.5</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:06:10 INFO  Benchmark_Timer - Begin run: LSDStringSort with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 2000000 :1503.7</t>
+  </si>
+  <si>
+    <t>2021-12-15 21:06:54 INFO  Benchmark_Timer - Begin run: LSDStringSort with 10 runs</t>
+  </si>
+  <si>
+    <t>Time Taken for 4000000 :2977.3</t>
   </si>
 </sst>
 </file>
@@ -439,19 +440,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>TimSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LSD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dual Pivot Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>HuskySort</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>MSD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>TimSort</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LSD</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dual Pivot Quick Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -463,19 +464,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1487.9</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000.1</c:v>
+                  <c:v>226.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191</c:v>
+                  <c:v>176.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>342.2</c:v>
+                  <c:v>623.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240.5</c:v>
+                  <c:v>1000.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,6 +624,372 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time taken to sort 4,000,000 chinese words</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Tim Sort</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>LSD Radix Sort</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Dual Pivot Quick Sort</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Husky Sort</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>MSD Radix Sort</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$30:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3413.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2977.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4971.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10506.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12474.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F968-46AE-BC68-362BFDC3DE73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1653229728"/>
+        <c:axId val="1653226816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1653229728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1653226816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1653226816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1653229728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -815,43 +1182,40 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>TimSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LSD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dual Pivot Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>HuskySort</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>MSD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>TimSort</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LSD</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dual Pivot Quick Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$17:$J$21</c:f>
+              <c:f>Sheet1!$J$17:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3246.2</c:v>
+                  <c:v>388.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2184</c:v>
+                  <c:v>539.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>388.7</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>538.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>597.1</c:v>
+                  <c:v>1285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,47 +1551,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$30:$H$34</c:f>
+              <c:f>Sheet1!$H$30:$H$33</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>HuskySort</c:v>
+                  <c:v>TimSort</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MSD</c:v>
+                  <c:v>LSD</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TimSort</c:v>
+                  <c:v>Dual Pivot Quick Sort</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LSD</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dual Pivot Quick Sort</c:v>
+                  <c:v>HuskySort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$30:$J$34</c:f>
+              <c:f>Sheet1!$J$30:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5720.9</c:v>
+                  <c:v>794.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3945.8</c:v>
+                  <c:v>848.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>794.8</c:v>
+                  <c:v>1069.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>820.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1300.4000000000001</c:v>
+                  <c:v>2589.8000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,47 +1914,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$43:$H$47</c:f>
+              <c:f>Sheet1!$H$43:$H$46</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>HuskySort</c:v>
+                  <c:v>TimSort</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MSD</c:v>
+                  <c:v>LSD</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TimSort</c:v>
+                  <c:v>Dual Pivot Quick Sort</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LSD</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dual Pivot Quick Sort</c:v>
+                  <c:v>HuskySort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$43:$J$47</c:f>
+              <c:f>Sheet1!$J$43:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10664.4</c:v>
+                  <c:v>1604.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6833.6</c:v>
+                  <c:v>1503.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1604.6</c:v>
+                  <c:v>2302.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1666.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2884.7</c:v>
+                  <c:v>5223.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,47 +2284,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$56:$H$60</c:f>
+              <c:f>Sheet1!$H$56:$H$59</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>HuskySort</c:v>
+                  <c:v>TimSort</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MSD</c:v>
+                  <c:v>LSD</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TimSort</c:v>
+                  <c:v>Dual Pivot Quick Sort</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LSD</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dual Pivot Quick Sort</c:v>
+                  <c:v>HuskySort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$56:$J$60</c:f>
+              <c:f>Sheet1!$J$56:$J$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16675</c:v>
+                  <c:v>3413.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12474.4</c:v>
+                  <c:v>2977.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3413.8</c:v>
+                  <c:v>4971.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2930.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6105.9</c:v>
+                  <c:v>10506.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,7 +2501,1661 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time taken to sort 250,000 chinese words</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Tim Sort</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>LSD Radix Sort</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Dual Pivot Quick Sort</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Husky Sort</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>MSD Radix Sort</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>623.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C56A-4D6E-B721-8618057CDBA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1555618816"/>
+        <c:axId val="1555620064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1555618816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1555620064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1555620064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>Time(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1555618816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time taken to sort 500,000 chinese words</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Tim Sort</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>LSD Radix Sort</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Dual Pivot Quick Sort</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Husky Sort</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>MSD Radix Sort</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>388.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>539.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-743D-4EC3-9D4F-CA0E8CF96591}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1636950752"/>
+        <c:axId val="1636952000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1636950752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1636952000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1636952000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1636950752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time taken to sort 1,000,000 chinese words</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Tim Sort</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>LSD Radix Sort</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Dual Pivot Quick Sort</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Husky Sort</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>MSD Radix Sort</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>794.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>848.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1069.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2589.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3945.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7910-4D82-8C54-BFDFBC3981B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1653229312"/>
+        <c:axId val="1653228896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1653229312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1653228896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1653228896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1653229312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time taken to sort 2,000,000 chinese words</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Tim Sort</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>LSD Radix Sort</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Dual Pivot Quick Sort</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Husky Sort</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>MSD Radix Sort</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$23:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1604.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1503.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2302.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5223.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6833.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03DB-4EF5-8461-3EEBE4841CC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1817493856"/>
+        <c:axId val="1817496768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1817493856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1817496768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1817496768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1817493856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2355,6 +4355,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2858,7 +5018,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3361,7 +5521,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3864,7 +6024,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4367,7 +6527,2522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4911,15 +9586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5055,6 +9730,191 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88159639-0C0B-48BE-80B3-C428CAFDD642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A74EC68-AA71-4F46-8D9D-AB91CCB89924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7958025-6819-4E23-B129-229BB7B0287E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F0E4E6-C5B8-4BC2-8F48-A5D1B0CAD143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3946250-B077-442D-A0C3-CBC4D9541CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5320,8 +10180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:E47"/>
+    <sheetView topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5344,30 +10204,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -5376,21 +10236,21 @@
         <v>250000</v>
       </c>
       <c r="E3" s="1">
-        <v>1487.9</v>
+        <v>623.20000000000005</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1">
         <v>250000</v>
       </c>
       <c r="J3" s="1">
-        <v>1487.9</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -5399,21 +10259,21 @@
         <v>500000</v>
       </c>
       <c r="E4" s="1">
-        <v>3246.2</v>
+        <v>1285</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
         <v>250000</v>
       </c>
       <c r="J4" s="1">
-        <v>1000.1</v>
+        <v>226.7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -5422,21 +10282,21 @@
         <v>1000000</v>
       </c>
       <c r="E5" s="1">
-        <v>5720.9</v>
+        <v>2589.8000000000002</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>250000</v>
       </c>
       <c r="J5" s="1">
-        <v>191</v>
+        <v>176.6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -5445,21 +10305,21 @@
         <v>2000000</v>
       </c>
       <c r="E6" s="1">
-        <v>10664.4</v>
+        <v>5223.2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
         <v>250000</v>
       </c>
       <c r="J6" s="1">
-        <v>342.2</v>
+        <v>623.20000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -5468,72 +10328,72 @@
         <v>4000000</v>
       </c>
       <c r="E7" s="1">
-        <v>16675</v>
+        <v>10506.6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
         <v>250000</v>
       </c>
       <c r="J7" s="1">
-        <v>240.5</v>
+        <v>1000.1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>250000</v>
@@ -5542,21 +10402,21 @@
         <v>1000.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I17" s="1">
         <v>500000</v>
       </c>
       <c r="J17" s="1">
-        <v>3246.2</v>
+        <v>388.7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>500000</v>
@@ -5565,21 +10425,21 @@
         <v>2184</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1">
         <v>500000</v>
       </c>
       <c r="J18" s="1">
-        <v>2184</v>
+        <v>539.79999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>1000000</v>
@@ -5588,21 +10448,21 @@
         <v>3945.8</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I19" s="1">
         <v>500000</v>
       </c>
       <c r="J19" s="1">
-        <v>388.7</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>2000000</v>
@@ -5611,21 +10471,21 @@
         <v>6833.6</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I20" s="1">
         <v>500000</v>
       </c>
       <c r="J20" s="1">
-        <v>538.4</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>4000000</v>
@@ -5634,69 +10494,69 @@
         <v>12474.4</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I21" s="1">
         <v>500000</v>
       </c>
       <c r="J21" s="1">
-        <v>597.1</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1">
         <v>250000</v>
@@ -5705,21 +10565,21 @@
         <v>191</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I30" s="1">
         <v>1000000</v>
       </c>
       <c r="J30" s="1">
-        <v>5720.9</v>
+        <v>794.8</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1">
         <v>500000</v>
@@ -5728,21 +10588,21 @@
         <v>388.7</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I31" s="1">
         <v>1000000</v>
       </c>
       <c r="J31" s="1">
-        <v>3945.8</v>
+        <v>848.5</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
         <v>1000000</v>
@@ -5751,21 +10611,21 @@
         <v>794.8</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I32" s="1">
         <v>1000000</v>
       </c>
       <c r="J32" s="1">
-        <v>794.8</v>
+        <v>1069.7</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1">
         <v>2000000</v>
@@ -5774,21 +10634,21 @@
         <v>1604.6</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I33" s="1">
         <v>1000000</v>
       </c>
       <c r="J33" s="1">
-        <v>820.9</v>
+        <v>2589.8000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1">
         <v>4000000</v>
@@ -5797,359 +10657,359 @@
         <v>3413.8</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I34" s="1">
         <v>1000000</v>
       </c>
       <c r="J34" s="1">
-        <v>1300.4000000000001</v>
+        <v>3945.8</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1">
         <v>250000</v>
       </c>
       <c r="E43" s="1">
-        <v>342.2</v>
+        <v>226.7</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I43" s="1">
         <v>2000000</v>
       </c>
       <c r="J43" s="1">
-        <v>10664.4</v>
+        <v>1604.6</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1">
         <v>500000</v>
       </c>
       <c r="E44" s="1">
-        <v>538.4</v>
+        <v>539.79999999999995</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I44" s="1">
         <v>2000000</v>
       </c>
       <c r="J44" s="1">
-        <v>6833.6</v>
+        <v>1503.7</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D45" s="1">
         <v>1000000</v>
       </c>
       <c r="E45" s="1">
-        <v>820.9</v>
+        <v>848.5</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I45" s="1">
         <v>2000000</v>
       </c>
       <c r="J45" s="1">
-        <v>1604.6</v>
+        <v>2302.9</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D46" s="1">
         <v>2000000</v>
       </c>
       <c r="E46" s="1">
-        <v>1666.3</v>
+        <v>1503.7</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I46" s="1">
         <v>2000000</v>
       </c>
       <c r="J46" s="1">
-        <v>1666.3</v>
+        <v>5223.2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D47" s="1">
         <v>4000000</v>
       </c>
       <c r="E47" s="1">
-        <v>2930.5</v>
+        <v>2977.3</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I47" s="1">
         <v>2000000</v>
       </c>
       <c r="J47" s="1">
-        <v>2884.7</v>
+        <v>6833.6</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D56" s="1">
         <v>250000</v>
       </c>
       <c r="E56" s="1">
-        <v>240.5</v>
+        <v>176.6</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I56" s="1">
         <v>4000000</v>
       </c>
       <c r="J56" s="1">
-        <v>16675</v>
+        <v>3413.8</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D57" s="1">
         <v>500000</v>
       </c>
       <c r="E57" s="1">
-        <v>597.1</v>
+        <v>446</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I57" s="1">
         <v>4000000</v>
       </c>
       <c r="J57" s="1">
-        <v>12474.4</v>
+        <v>2977.3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D58" s="1">
         <v>1000000</v>
       </c>
       <c r="E58" s="1">
-        <v>1300.4000000000001</v>
+        <v>1069.7</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I58" s="1">
         <v>4000000</v>
       </c>
       <c r="J58" s="1">
-        <v>3413.8</v>
+        <v>4971.8999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D59" s="1">
         <v>2000000</v>
       </c>
       <c r="E59" s="1">
-        <v>2884.7</v>
+        <v>2302.9</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I59" s="1">
         <v>4000000</v>
       </c>
       <c r="J59" s="1">
-        <v>2930.5</v>
+        <v>10506.6</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D60" s="1">
         <v>4000000</v>
       </c>
       <c r="E60" s="1">
-        <v>6105.9</v>
+        <v>4971.8999999999996</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I60" s="1">
         <v>4000000</v>
       </c>
       <c r="J60" s="1">
-        <v>6105.9</v>
+        <v>12474.4</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6157,4 +11017,353 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978D77AC-CEAD-4241-A6A5-955E3053BA90}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>226.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>176.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>623.20000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>388.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>539.79999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>794.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>848.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1069.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2589.8000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3945.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1604.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1503.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2302.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5223.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6833.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3413.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2977.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4971.8999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10506.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>12474.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>